--- a/analysis/automated/results/probit_multicollinearity.xlsx
+++ b/analysis/automated/results/probit_multicollinearity.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,10 +866,167 @@
         <v>0.336</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>perception ~ awareness + experience + floodzone</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.516</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>387.583</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>awareness</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>387.583</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>387.583</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.905</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>floodzone</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>387.583</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10.249</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.594</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
